--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/assignSecondaryIp.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/assignSecondaryIp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0829\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>belonged_subnet</t>
   </si>
@@ -36,9 +36,6 @@
     <t>subnet_useable_ip</t>
   </si>
   <si>
-    <t>Number of available IPs in subnet</t>
-  </si>
-  <si>
     <t>usable_quota</t>
   </si>
   <si>
@@ -66,15 +63,9 @@
     <t>assginIp_tips_one</t>
   </si>
   <si>
-    <t>If customization is selected, please</t>
-  </si>
-  <si>
     <t>assginIp_tips_two</t>
   </si>
   <si>
-    <t>assign from</t>
-  </si>
-  <si>
     <t>assginIp_tips_three</t>
   </si>
   <si>
@@ -132,21 +123,12 @@
     <t>error_tips_one</t>
   </si>
   <si>
-    <t>'This IP address is not'</t>
-  </si>
-  <si>
     <t>error_tips_two</t>
   </si>
   <si>
-    <t>'Within or has been reserved';</t>
-  </si>
-  <si>
     <t>error_tips_three</t>
   </si>
   <si>
-    <t>'IP address has been already assigned'</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -176,28 +158,6 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>若选择自定义，请在</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>内指定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
       <t>新增一行</t>
     </r>
   </si>
@@ -558,9 +518,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>'</t>
-    </r>
+    <t>Number of available IP in subnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -595,12 +556,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
+      <t xml:space="preserve"> xxx </t>
     </r>
     <r>
       <rPr>
@@ -618,13 +574,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This IP address is not within xxx or has been reserved.'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -661,6 +619,19 @@
       </rPr>
       <t>'</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP address has already been assigned, please change another IP.'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若选择自定义，请在 xxx 内指定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If customization is selected, please assign from xxx.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -715,9 +686,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1059,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1087,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1098,215 +1082,213 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C21 A1:A21" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C2 A1:A21 C4:C7 C10:C18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>